--- a/output/fit_clients/fit_round_468.xlsx
+++ b/output/fit_clients/fit_round_468.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1599703743.837082</v>
+        <v>1561596760.752453</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1147446545245571</v>
+        <v>0.08168580267258901</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03798013815940805</v>
+        <v>0.035554504765625</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>799851813.7934495</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1799115092.201809</v>
+        <v>2017215626.308988</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1813607751015632</v>
+        <v>0.1698040587659255</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04054745666921938</v>
+        <v>0.04892803544181011</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>899557555.0645157</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4255512858.329211</v>
+        <v>5210930148.269506</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1499905552116838</v>
+        <v>0.1274757792081078</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03471524610953135</v>
+        <v>0.03383111294726115</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>169</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2127756461.46143</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2942046909.534673</v>
+        <v>3688293349.579305</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09105292454597667</v>
+        <v>0.1031493694088512</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04203145296436641</v>
+        <v>0.04987581411529445</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>173</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1471023528.447262</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1878720179.376276</v>
+        <v>2722206873.94906</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1434756170583598</v>
+        <v>0.09245147147314643</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04466770091524627</v>
+        <v>0.04714520185511484</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>89</v>
-      </c>
-      <c r="J6" t="n">
-        <v>939360132.4306825</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2262695333.680715</v>
+        <v>2068825310.530784</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06404957596631773</v>
+        <v>0.06724239944276983</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03039535297039275</v>
+        <v>0.04506190539781448</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>147</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1131347702.712034</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2777193728.056903</v>
+        <v>3813556328.489025</v>
       </c>
       <c r="F8" t="n">
-        <v>0.159141791860326</v>
+        <v>0.1347106207968939</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02834076642779186</v>
+        <v>0.0249897111834318</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>150</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1388596898.785747</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2022445401.120692</v>
+        <v>2057944460.259094</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1442904661797199</v>
+        <v>0.1690715531488518</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0278113339373806</v>
+        <v>0.03636025487202993</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1011222724.080294</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4873937458.587706</v>
+        <v>3938950180.100911</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1802546432429531</v>
+        <v>0.1808639626005692</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05169465698956088</v>
+        <v>0.04630568555877779</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>197</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2436968818.898467</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3042468693.348522</v>
+        <v>4270223845.559916</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1516096750562848</v>
+        <v>0.123779666606902</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0371553653245083</v>
+        <v>0.03458256636128251</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>193</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1521234292.605707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2849126316.281255</v>
+        <v>2266980696.698417</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1726834020483055</v>
+        <v>0.1928554033489364</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04485924341509386</v>
+        <v>0.05376320024358666</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>158</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1424563162.359687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5249919025.4424</v>
+        <v>5289265453.080894</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09042004681633138</v>
+        <v>0.06931487867477727</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02105162056170964</v>
+        <v>0.02665342624913376</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>157</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2624959504.186898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3635535937.854083</v>
+        <v>2607539117.629925</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1654569365015443</v>
+        <v>0.1852167795476368</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03197051068514357</v>
+        <v>0.03450110127121304</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>150</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1817767957.363021</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1752558498.436252</v>
+        <v>1506979564.302703</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08194765565963597</v>
+        <v>0.06979861516202077</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04834699649645406</v>
+        <v>0.03031264719309449</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>876279392.0136577</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1747925398.512309</v>
+        <v>2095779510.279097</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1088056514725075</v>
+        <v>0.1003975383058414</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05168040255926552</v>
+        <v>0.03447820708537652</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>96</v>
-      </c>
-      <c r="J16" t="n">
-        <v>873962797.2749276</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5098771998.256234</v>
+        <v>4327561646.185395</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1440078728826746</v>
+        <v>0.1664650932622522</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03296021445652709</v>
+        <v>0.03321394361282389</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>137</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2549385979.430753</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3339212180.862927</v>
+        <v>2496259380.709676</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1437638087064256</v>
+        <v>0.1411557720721499</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03247585841756147</v>
+        <v>0.03046184791653822</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>153</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1669606096.127233</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1025871952.333717</v>
+        <v>854212998.5853578</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1309148562058469</v>
+        <v>0.1312732460064344</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01757437869423102</v>
+        <v>0.01914129876316664</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>512936011.7007404</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1720534658.027818</v>
+        <v>2156806109.228622</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1599037808179997</v>
+        <v>0.113117585753782</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02652545697386362</v>
+        <v>0.02452407731519209</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>65</v>
-      </c>
-      <c r="J20" t="n">
-        <v>860267385.1533432</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1858933038.020968</v>
+        <v>2551991696.314036</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1002179731234219</v>
+        <v>0.08642363539896944</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03990721276256037</v>
+        <v>0.04259992992168099</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>929466568.4927485</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2537095078.862211</v>
+        <v>3325876874.291819</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1404995421651749</v>
+        <v>0.1353987606913742</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04088772083153012</v>
+        <v>0.0427472160058607</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>130</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1268547628.699809</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1287974139.764489</v>
+        <v>1512642042.690894</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1811142475294569</v>
+        <v>0.1654518625626255</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04641059494843446</v>
+        <v>0.04375468740171681</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>643987091.5676721</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2640611661.658595</v>
+        <v>2731924050.747124</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1308576711034988</v>
+        <v>0.1155204390617309</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02518601790725028</v>
+        <v>0.03338813677291829</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>137</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1320305890.260193</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1421407356.942962</v>
+        <v>1303719610.974814</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1112832954408388</v>
+        <v>0.1064236476406222</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02364804028190065</v>
+        <v>0.02571362664496974</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>710703645.5248765</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1432614531.725468</v>
+        <v>1309512883.034269</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1132395809967524</v>
+        <v>0.09789256030353291</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03472602273020749</v>
+        <v>0.03365039142473291</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>716307343.8547019</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4545373214.985835</v>
+        <v>4296768715.798968</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1042796175493342</v>
+        <v>0.1196630854165936</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02231677412656089</v>
+        <v>0.02523892589789916</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>113</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2272686590.576794</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2674109171.443783</v>
+        <v>3507190271.861179</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1170877363199695</v>
+        <v>0.1363193313060713</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0433340612729647</v>
+        <v>0.04760270614098381</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>153</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1337054568.704372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5588556707.865729</v>
+        <v>3639885640.220487</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1316229807379239</v>
+        <v>0.1056934254037078</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03021644924456152</v>
+        <v>0.0343630421149549</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>207</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2794278260.719384</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2250432497.000497</v>
+        <v>2111160900.581475</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0928194524612153</v>
+        <v>0.1189053085761919</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02981953484602387</v>
+        <v>0.02815237119251121</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1125216314.503497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1434576855.621195</v>
+        <v>999151871.4972816</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07121373517051251</v>
+        <v>0.0676149820164596</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04630105171537577</v>
+        <v>0.04997490535764702</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>717288324.0853732</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1265241938.93657</v>
+        <v>1364458394.63375</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07611518022508854</v>
+        <v>0.09002286432517212</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03252582976285364</v>
+        <v>0.02625977161049852</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>632620989.2171355</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2654968177.311198</v>
+        <v>2383068620.689548</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1714070208715981</v>
+        <v>0.140289789633026</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05306888301710183</v>
+        <v>0.05439163029040223</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>144</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1327484113.68965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1463089882.472619</v>
+        <v>1445558511.108228</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08846929646799459</v>
+        <v>0.1028288923167206</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02350234858263921</v>
+        <v>0.01807430131302138</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>731544903.2122917</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>944447419.6774522</v>
+        <v>1299923943.498616</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1181546197586657</v>
+        <v>0.07279628312811616</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03035188046294093</v>
+        <v>0.02753019000768746</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>472223740.6072471</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2063507716.486812</v>
+        <v>2337355937.660287</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1526245358871676</v>
+        <v>0.1680565600117516</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01787117198180771</v>
+        <v>0.0246520891090462</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>117</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1031753915.191777</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2616085571.029801</v>
+        <v>2059735921.334185</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09081219054411296</v>
+        <v>0.08494675987514477</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02762430656703196</v>
+        <v>0.03394517642260393</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>125</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1308042897.595354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1454684910.153427</v>
+        <v>1392503555.338962</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1052259852603789</v>
+        <v>0.1115005497011249</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02628552303247577</v>
+        <v>0.03854843529061199</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>727342510.7520245</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1487698191.047516</v>
+        <v>2015809743.769325</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1522560154860148</v>
+        <v>0.1279901469714891</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02335354550926133</v>
+        <v>0.0227476271676966</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>743849167.8531491</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1194080532.15731</v>
+        <v>1577577086.303808</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1317272384370783</v>
+        <v>0.1606158688419203</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04214778456162292</v>
+        <v>0.05895487381718035</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>597040308.8599721</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1942842178.69745</v>
+        <v>2804605527.035165</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1630462210829536</v>
+        <v>0.1437302188877692</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03473701633471768</v>
+        <v>0.0407167747604863</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>113</v>
-      </c>
-      <c r="J41" t="n">
-        <v>971421169.1903099</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3608312971.948411</v>
+        <v>3958101747.813022</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08474419464686993</v>
+        <v>0.1020823733605859</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04605659424572347</v>
+        <v>0.02904492489795113</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>152</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1804156488.294291</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2737146927.936777</v>
+        <v>3054023467.536568</v>
       </c>
       <c r="F43" t="n">
-        <v>0.140667947951644</v>
+        <v>0.1605651512996418</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02132423072273622</v>
+        <v>0.01607122534811532</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>163</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1368573488.792083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2078401376.170907</v>
+        <v>2311759916.679094</v>
       </c>
       <c r="F44" t="n">
-        <v>0.078405510126002</v>
+        <v>0.09269409748632468</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03646039904736647</v>
+        <v>0.03241080541184313</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1039200810.094748</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2423460565.528484</v>
+        <v>1558688283.241801</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1830542456574699</v>
+        <v>0.1939974951594742</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05279222224771646</v>
+        <v>0.05578079403950676</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1211730316.314613</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5575226701.134376</v>
+        <v>3663731425.69076</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1613333892544782</v>
+        <v>0.1105202751097167</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04265558911520406</v>
+        <v>0.05659118654688416</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>166</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2787613410.351568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3264666786.225496</v>
+        <v>4396739555.887259</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1318532283390602</v>
+        <v>0.2019591003665144</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04457213140686753</v>
+        <v>0.04041263017603558</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>126</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1632333350.639181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3546916773.168173</v>
+        <v>3001841214.326006</v>
       </c>
       <c r="F48" t="n">
-        <v>0.106734800598695</v>
+        <v>0.06998748312806923</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02898266984631493</v>
+        <v>0.03898002835053233</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>153</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1773458447.309519</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1747526796.225464</v>
+        <v>1799095268.186003</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1606027850963621</v>
+        <v>0.1914344241022973</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04030379639259951</v>
+        <v>0.03282742098552107</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>873763391.6832786</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3911765354.489769</v>
+        <v>3250169724.90678</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1466765412902658</v>
+        <v>0.169490119433155</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04592941992394879</v>
+        <v>0.04963978837759739</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>159</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1955882672.233697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1028953348.046392</v>
+        <v>1524303827.765667</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1762030335425799</v>
+        <v>0.1302604862109939</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03648839049562375</v>
+        <v>0.03914898773412614</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>514476753.3239201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4608170148.538608</v>
+        <v>5086972084.351509</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1302028230510885</v>
+        <v>0.111608924385951</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05801547372283727</v>
+        <v>0.0456048892713269</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>193</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2304085094.980683</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2371696740.305613</v>
+        <v>2529568356.753229</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1889421030361281</v>
+        <v>0.1695257257707019</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03487468205179156</v>
+        <v>0.02508745994680338</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>134</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1185848445.959507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3080720104.303311</v>
+        <v>4609806876.647121</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1331793151978284</v>
+        <v>0.1308844419075039</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05180083295281709</v>
+        <v>0.04973961359231394</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>152</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1540360044.060121</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3042809549.278984</v>
+        <v>3077302325.041133</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1557118829808911</v>
+        <v>0.1868155233053807</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02083775339542483</v>
+        <v>0.02823546788947996</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1521404707.358074</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1207639897.58581</v>
+        <v>1355425611.489092</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1393499279067937</v>
+        <v>0.1080154693581337</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04436507653148267</v>
+        <v>0.04970047443641793</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>603820034.4009852</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3216245728.275165</v>
+        <v>3405224011.808201</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1836076067269446</v>
+        <v>0.1754420454845351</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02538898825203386</v>
+        <v>0.02632852760407696</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>148</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1608122886.719341</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1720335588.808893</v>
+        <v>1236609916.637973</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1676510999772296</v>
+        <v>0.1572080888186118</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03445860603108132</v>
+        <v>0.02560873704188515</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>860167805.4494017</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5032958397.202306</v>
+        <v>4622718056.139231</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09396453255793212</v>
+        <v>0.1185247289061029</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04973831167787369</v>
+        <v>0.03277298537381635</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>127</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2516479124.749206</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3481765127.029496</v>
+        <v>2295832001.726158</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1545668710770165</v>
+        <v>0.1609824469481718</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02735656307696568</v>
+        <v>0.03205640847346095</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>146</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1740882684.419885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2814963683.78293</v>
+        <v>2198267470.543492</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1118957611060747</v>
+        <v>0.1551572713012623</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0235461548815865</v>
+        <v>0.03247952191921254</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>159</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1407481839.830345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1807181014.975256</v>
+        <v>2059871689.434456</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1897263510325381</v>
+        <v>0.1723018436074199</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03512819287949624</v>
+        <v>0.04840002138040473</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>903590536.6483141</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5473392962.31246</v>
+        <v>4856447430.115286</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08011072344930063</v>
+        <v>0.09524517036427543</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04236736172461151</v>
+        <v>0.03248199113340593</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>134</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2736696477.819627</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5277102412.962922</v>
+        <v>3398561377.278687</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1253197471208647</v>
+        <v>0.1168612520183921</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03333507459201812</v>
+        <v>0.02619240100346805</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>145</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2638551332.193291</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5974810343.135711</v>
+        <v>5357048837.597168</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1195621687857984</v>
+        <v>0.1116508986267625</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02784699259365673</v>
+        <v>0.02161571313097267</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>168</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2987405072.315056</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5199170475.542048</v>
+        <v>4809502330.210738</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1445402580168313</v>
+        <v>0.1474174429291928</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03985894837939541</v>
+        <v>0.04953709016776755</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>138</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2599585275.659448</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2841701921.320055</v>
+        <v>3246515946.841377</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07653579093069289</v>
+        <v>0.09755138602605579</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04321699581932912</v>
+        <v>0.03110303800242471</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>150</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1420850992.350633</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4458958853.311513</v>
+        <v>4546186282.145761</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1111383279059228</v>
+        <v>0.1292655474709818</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04183472746564598</v>
+        <v>0.04684059058281885</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>148</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2229479450.292744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1716174202.43414</v>
+        <v>2404160633.513958</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1144699642020217</v>
+        <v>0.1183297703785811</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03825853660557877</v>
+        <v>0.05245072313099423</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
         <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>858087069.4827859</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3592877915.491753</v>
+        <v>2380936813.532561</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08108550818152388</v>
+        <v>0.06379924099434091</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03839465004456548</v>
+        <v>0.04700825633317637</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>134</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1796438973.349806</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4778005409.242122</v>
+        <v>5632667966.749988</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1167049013536505</v>
+        <v>0.1783405366684755</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02300422488049385</v>
+        <v>0.03221291151774146</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>170</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2389002793.810167</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1983164788.267715</v>
+        <v>1950325284.646335</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06801189974309052</v>
+        <v>0.09457998843663755</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03961627268987115</v>
+        <v>0.04677738002031893</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>991582343.1863399</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2198327747.091613</v>
+        <v>2180856705.645498</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07643433912071008</v>
+        <v>0.08714955580734682</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03319420553038183</v>
+        <v>0.03953548752569119</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>177</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1099163942.973111</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2472448138.148924</v>
+        <v>3603584803.451451</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1585497944546467</v>
+        <v>0.1658190513199244</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02474975465435276</v>
+        <v>0.02552136027976402</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>159</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1236224180.126095</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2117897812.635431</v>
+        <v>1516184723.761608</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1603346358268252</v>
+        <v>0.102774227737822</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02803960710068762</v>
+        <v>0.03681113657027223</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1058948859.441177</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4627820609.545494</v>
+        <v>4498815366.665848</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1016123296397923</v>
+        <v>0.07610517870190629</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02275643833563792</v>
+        <v>0.02559869182478179</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2313910315.849992</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2274653409.589799</v>
+        <v>1840296519.906383</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1740334669179293</v>
+        <v>0.1253219341020895</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02654317391588235</v>
+        <v>0.02636445783794045</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1137326806.898127</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3820552932.037833</v>
+        <v>3682027201.895268</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1368357072457569</v>
+        <v>0.1212839747166718</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0561402695136708</v>
+        <v>0.05705456379408268</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>163</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1910276444.621297</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1411740488.663955</v>
+        <v>1456998361.637316</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1166239946043312</v>
+        <v>0.1507960637770781</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02459019069232821</v>
+        <v>0.03977880247996868</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>705870263.1406143</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4279981264.014638</v>
+        <v>5131599347.252408</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1016280819942005</v>
+        <v>0.1095714019915302</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0294866062822288</v>
+        <v>0.03495722120765831</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2139990645.412868</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4089303621.61937</v>
+        <v>4875949676.947134</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1282462313006573</v>
+        <v>0.1249849144823212</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02478635230864426</v>
+        <v>0.03168058922447946</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2044651777.367678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5082124933.898027</v>
+        <v>3807711919.579002</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2048320864013798</v>
+        <v>0.1367887661380965</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0184760958684608</v>
+        <v>0.02126754305056532</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>163</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2541062446.322083</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1655763201.854892</v>
+        <v>2266509212.928169</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1345513255183741</v>
+        <v>0.142037196529693</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02932742727641001</v>
+        <v>0.03221004701034164</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>827881543.3832409</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1763038575.187469</v>
+        <v>2374278673.295674</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08895653519352138</v>
+        <v>0.09539697404226351</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0459067401794626</v>
+        <v>0.04369743605595369</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>881519327.3708184</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3568809537.805722</v>
+        <v>2794191540.85447</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1231132745215856</v>
+        <v>0.1361516650384871</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05358132000572032</v>
+        <v>0.04448069174284528</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>174</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1784404891.89804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2809142995.230597</v>
+        <v>2255199876.281731</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1153973929000078</v>
+        <v>0.1582132184144705</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0179103269156561</v>
+        <v>0.01873150227964798</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>59</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1404571637.780046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1097371764.56768</v>
+        <v>1205739079.440852</v>
       </c>
       <c r="F87" t="n">
-        <v>0.186461193586305</v>
+        <v>0.1646656292264152</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02865788769558115</v>
+        <v>0.03358622578738179</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>548685911.5822074</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2603921535.709292</v>
+        <v>2813486804.562202</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1496103525792078</v>
+        <v>0.1258383471334659</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02770582360681844</v>
+        <v>0.02438135700160984</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>186</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1301960759.177549</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3391318769.553633</v>
+        <v>3477540498.603454</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1397502647047932</v>
+        <v>0.135655240905512</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03087404593687647</v>
+        <v>0.0303632989834046</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>159</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1695659394.236721</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1609260862.022084</v>
+        <v>2051533701.797417</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09543051853991226</v>
+        <v>0.1272079479274615</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05623707284921944</v>
+        <v>0.0547037072379008</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>804630429.7590725</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2028995608.978813</v>
+        <v>2099637158.545191</v>
       </c>
       <c r="F91" t="n">
-        <v>0.192375066493278</v>
+        <v>0.1529029845623971</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04969068865980487</v>
+        <v>0.05570731401656324</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1014497772.900746</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2704114119.04285</v>
+        <v>2877637474.824002</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06805699904985764</v>
+        <v>0.06691843242025131</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04480766973892568</v>
+        <v>0.03269289839851064</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>128</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1352057058.921385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4311248871.185881</v>
+        <v>4380527540.658201</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1378158677501607</v>
+        <v>0.1148265665852647</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04253670997922989</v>
+        <v>0.03506331702189434</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2155624416.120772</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2183449569.499186</v>
+        <v>1593769806.614924</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1502095055394558</v>
+        <v>0.1310106017293236</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03950496406648619</v>
+        <v>0.03491687917069199</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1091724806.970506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3197620236.538791</v>
+        <v>3281157634.726946</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1334836564965821</v>
+        <v>0.09916141286951544</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0529956530005476</v>
+        <v>0.03777093160040453</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>115</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1598810103.639431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1750948044.481846</v>
+        <v>2043272845.914112</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1192411115234216</v>
+        <v>0.1001324627345127</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03660851799224592</v>
+        <v>0.03613564622806708</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>875474035.8279972</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5050592422.915854</v>
+        <v>3302136387.199412</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1406348416028305</v>
+        <v>0.1391808432900417</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02030084346536972</v>
+        <v>0.02286495953408244</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>151</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2525296352.344388</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2383525228.34994</v>
+        <v>3554974431.587914</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08022920005033117</v>
+        <v>0.0841263441832195</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02976081850461932</v>
+        <v>0.02246802974878747</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1191762557.077462</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3044756527.314681</v>
+        <v>3135459651.207431</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1026560541589402</v>
+        <v>0.1331994301883593</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02355296593119877</v>
+        <v>0.02193106824355354</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>146</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1522378252.841285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3198995198.561076</v>
+        <v>3066367811.483685</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1467989770500685</v>
+        <v>0.172995096097445</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02519440150331405</v>
+        <v>0.02179300689437938</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>143</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1599497606.017173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3539374417.114945</v>
+        <v>3353957075.363341</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1725196863442959</v>
+        <v>0.1394019061785753</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04745780545254044</v>
+        <v>0.04567715816974906</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>193</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1769687368.957211</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_468.xlsx
+++ b/output/fit_clients/fit_round_468.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1561596760.752453</v>
+        <v>2262011470.031886</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08168580267258901</v>
+        <v>0.1093096285069026</v>
       </c>
       <c r="G2" t="n">
-        <v>0.035554504765625</v>
+        <v>0.04536441279209481</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2017215626.308988</v>
+        <v>1901952815.347513</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1698040587659255</v>
+        <v>0.1117824927486316</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04892803544181011</v>
+        <v>0.03399194491467278</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5210930148.269506</v>
+        <v>4028745752.266841</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1274757792081078</v>
+        <v>0.1576849362648233</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03383111294726115</v>
+        <v>0.03740934585388624</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3688293349.579305</v>
+        <v>4115103896.772615</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1031493694088512</v>
+        <v>0.07531887342458703</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04987581411529445</v>
+        <v>0.04434531526078437</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2722206873.94906</v>
+        <v>2532460034.742307</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09245147147314643</v>
+        <v>0.1178931134983571</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04714520185511484</v>
+        <v>0.03654743973358231</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2068825310.530784</v>
+        <v>2729736500.25416</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06724239944276983</v>
+        <v>0.06529591456028311</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04506190539781448</v>
+        <v>0.03262814213598879</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3813556328.489025</v>
+        <v>3409386530.021259</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1347106207968939</v>
+        <v>0.140019251319153</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0249897111834318</v>
+        <v>0.03252443067357108</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2057944460.259094</v>
+        <v>1993523162.811152</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1690715531488518</v>
+        <v>0.1633556593919593</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03636025487202993</v>
+        <v>0.02615836754939237</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3938950180.100911</v>
+        <v>3955963274.728131</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1808639626005692</v>
+        <v>0.2073303873077811</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04630568555877779</v>
+        <v>0.04335315900719708</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4270223845.559916</v>
+        <v>3939879793.259652</v>
       </c>
       <c r="F11" t="n">
-        <v>0.123779666606902</v>
+        <v>0.1402727231883905</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03458256636128251</v>
+        <v>0.04833724706498929</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2266980696.698417</v>
+        <v>2069220652.025373</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1928554033489364</v>
+        <v>0.1749916323210042</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05376320024358666</v>
+        <v>0.05147910410341176</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5289265453.080894</v>
+        <v>4948604118.00292</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06931487867477727</v>
+        <v>0.07030983303756075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02665342624913376</v>
+        <v>0.03059603604180149</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2607539117.629925</v>
+        <v>3415008050.12599</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1852167795476368</v>
+        <v>0.1250338670412129</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03450110127121304</v>
+        <v>0.04274524623345307</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1506979564.302703</v>
+        <v>1664903151.351867</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06979861516202077</v>
+        <v>0.06815780228233741</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03031264719309449</v>
+        <v>0.03236747874109337</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2095779510.279097</v>
+        <v>1933102418.804776</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1003975383058414</v>
+        <v>0.1045289472435326</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03447820708537652</v>
+        <v>0.03787455221354387</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4327561646.185395</v>
+        <v>4225507560.362782</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1664650932622522</v>
+        <v>0.1450407070910066</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03321394361282389</v>
+        <v>0.04777998414327609</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2496259380.709676</v>
+        <v>3021593226.939754</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1411557720721499</v>
+        <v>0.1562248566457732</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03046184791653822</v>
+        <v>0.02594458204610698</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>854212998.5853578</v>
+        <v>1267447603.763061</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1312732460064344</v>
+        <v>0.1759396517785026</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01914129876316664</v>
+        <v>0.01901437193951914</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2156806109.228622</v>
+        <v>2646181283.534294</v>
       </c>
       <c r="F20" t="n">
-        <v>0.113117585753782</v>
+        <v>0.1113383597016137</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02452407731519209</v>
+        <v>0.02192748834844075</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2551991696.314036</v>
+        <v>2655469826.035048</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08642363539896944</v>
+        <v>0.07698435793116123</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04259992992168099</v>
+        <v>0.04528171369915883</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3325876874.291819</v>
+        <v>3131548437.801691</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1353987606913742</v>
+        <v>0.1191642074617872</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0427472160058607</v>
+        <v>0.04129623882459481</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1512642042.690894</v>
+        <v>1095450962.667594</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1654518625626255</v>
+        <v>0.1806044894468574</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04375468740171681</v>
+        <v>0.04838301696139898</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2731924050.747124</v>
+        <v>3608908430.263838</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1155204390617309</v>
+        <v>0.1427772321080913</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03338813677291829</v>
+        <v>0.02338983997510787</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1303719610.974814</v>
+        <v>1226562661.249607</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1064236476406222</v>
+        <v>0.09412912399158162</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02571362664496974</v>
+        <v>0.02345017293449383</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1309512883.034269</v>
+        <v>1001135189.690548</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09789256030353291</v>
+        <v>0.1228624590281925</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03365039142473291</v>
+        <v>0.02459363511946211</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4296768715.798968</v>
+        <v>4627519415.605233</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1196630854165936</v>
+        <v>0.1366147334866154</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02523892589789916</v>
+        <v>0.01907522789526268</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3507190271.861179</v>
+        <v>3006613514.831592</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1363193313060713</v>
+        <v>0.1242607365676561</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04760270614098381</v>
+        <v>0.04280612402398843</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3639885640.220487</v>
+        <v>3949951152.690491</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1056934254037078</v>
+        <v>0.1127354654883395</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0343630421149549</v>
+        <v>0.04242760304201521</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2111160900.581475</v>
+        <v>2205145961.140699</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1189053085761919</v>
+        <v>0.1190152558746224</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02815237119251121</v>
+        <v>0.02558725489089693</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>999151871.4972816</v>
+        <v>915545852.0200362</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0676149820164596</v>
+        <v>0.06928894817193354</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04997490535764702</v>
+        <v>0.04606376057687216</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1364458394.63375</v>
+        <v>1230261706.480614</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09002286432517212</v>
+        <v>0.1017356174489204</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02625977161049852</v>
+        <v>0.02488417352327078</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2383068620.689548</v>
+        <v>2406537127.566438</v>
       </c>
       <c r="F33" t="n">
-        <v>0.140289789633026</v>
+        <v>0.1788098826926854</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05439163029040223</v>
+        <v>0.0414172951881889</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1445558511.108228</v>
+        <v>1549493303.2713</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1028288923167206</v>
+        <v>0.1000992846551943</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01807430131302138</v>
+        <v>0.0284612708113675</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1299923943.498616</v>
+        <v>963831088.4458582</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07279628312811616</v>
+        <v>0.08812301686777986</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02753019000768746</v>
+        <v>0.03412946115318157</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2337355937.660287</v>
+        <v>2333248460.660517</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1680565600117516</v>
+        <v>0.1587176212894063</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0246520891090462</v>
+        <v>0.02681329062581268</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,16 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2059735921.334185</v>
+        <v>2830365623.818282</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08494675987514477</v>
+        <v>0.09580972470064313</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03394517642260393</v>
+        <v>0.0303478661669923</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1392503555.338962</v>
+        <v>1373841918.588193</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1115005497011249</v>
+        <v>0.092999857680684</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03854843529061199</v>
+        <v>0.0256713239581691</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2015809743.769325</v>
+        <v>1930634416.574083</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1279901469714891</v>
+        <v>0.1301374854337505</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0227476271676966</v>
+        <v>0.02464802718762057</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1577577086.303808</v>
+        <v>1709634099.744082</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1606158688419203</v>
+        <v>0.1538648035120482</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05895487381718035</v>
+        <v>0.04237263878082843</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2804605527.035165</v>
+        <v>2657865659.273854</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1437302188877692</v>
+        <v>0.1027849031077686</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0407167747604863</v>
+        <v>0.02929177008922958</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3958101747.813022</v>
+        <v>3460498064.656163</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1020823733605859</v>
+        <v>0.1149768944508728</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02904492489795113</v>
+        <v>0.03802123901873548</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3054023467.536568</v>
+        <v>1969412136.617436</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1605651512996418</v>
+        <v>0.1776690018125403</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01607122534811532</v>
+        <v>0.01975180025595566</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2311759916.679094</v>
+        <v>1628576597.877492</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09269409748632468</v>
+        <v>0.09386471306120019</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03241080541184313</v>
+        <v>0.02561053345242842</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1558688283.241801</v>
+        <v>2036331205.717376</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1939974951594742</v>
+        <v>0.1817731094679517</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05578079403950676</v>
+        <v>0.05285011738296892</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3663731425.69076</v>
+        <v>4370363207.893761</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1105202751097167</v>
+        <v>0.1413255665499873</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05659118654688416</v>
+        <v>0.04771435390811219</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,19 +1740,19 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4396739555.887259</v>
+        <v>3885583826.705575</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2019591003665144</v>
+        <v>0.1711896054458948</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04041263017603558</v>
+        <v>0.03744859049059292</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3001841214.326006</v>
+        <v>2904675290.567895</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06998748312806923</v>
+        <v>0.07686453749867203</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03898002835053233</v>
+        <v>0.03278154045690496</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,16 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1799095268.186003</v>
+        <v>1978417107.742784</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1914344241022973</v>
+        <v>0.1508817796201264</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03282742098552107</v>
+        <v>0.03313668041845147</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3250169724.90678</v>
+        <v>2819670183.084008</v>
       </c>
       <c r="F50" t="n">
-        <v>0.169490119433155</v>
+        <v>0.1397850750234757</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04963978837759739</v>
+        <v>0.05316675738300778</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1524303827.765667</v>
+        <v>1021386621.800307</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1302604862109939</v>
+        <v>0.1349626197224072</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03914898773412614</v>
+        <v>0.03912276894568056</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5086972084.351509</v>
+        <v>4193385282.847302</v>
       </c>
       <c r="F52" t="n">
-        <v>0.111608924385951</v>
+        <v>0.08997502022039466</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0456048892713269</v>
+        <v>0.05882710919022884</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2529568356.753229</v>
+        <v>3407034140.878847</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1695257257707019</v>
+        <v>0.1655330037476186</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02508745994680338</v>
+        <v>0.02891562408869137</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4609806876.647121</v>
+        <v>4159024031.494623</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1308844419075039</v>
+        <v>0.1112702173043779</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04973961359231394</v>
+        <v>0.04024866272353983</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3077302325.041133</v>
+        <v>4388871934.696147</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1868155233053807</v>
+        <v>0.1496497571781285</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02823546788947996</v>
+        <v>0.02069181208032567</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1355425611.489092</v>
+        <v>1240083715.448296</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1080154693581337</v>
+        <v>0.1571593844207666</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04970047443641793</v>
+        <v>0.0475061272109249</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,16 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3405224011.808201</v>
+        <v>4510576245.499692</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1754420454845351</v>
+        <v>0.1632079740755129</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02632852760407696</v>
+        <v>0.0271520761062155</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1236609916.637973</v>
+        <v>1413121148.436562</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1572080888186118</v>
+        <v>0.1895239688753585</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02560873704188515</v>
+        <v>0.03134193328089178</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4622718056.139231</v>
+        <v>3420966515.89656</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1185247289061029</v>
+        <v>0.1252461201283651</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03277298537381635</v>
+        <v>0.03045275336340341</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2295832001.726158</v>
+        <v>3687917805.081129</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1609824469481718</v>
+        <v>0.1864551988232258</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03205640847346095</v>
+        <v>0.02461522623199089</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2198267470.543492</v>
+        <v>2391717190.345364</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1551572713012623</v>
+        <v>0.1436163844037663</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03247952191921254</v>
+        <v>0.02552131167597062</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2059871689.434456</v>
+        <v>1547719802.111803</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1723018436074199</v>
+        <v>0.1923003799444858</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04840002138040473</v>
+        <v>0.04225853011439629</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4856447430.115286</v>
+        <v>3380538667.598917</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09524517036427543</v>
+        <v>0.1032011499764341</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03248199113340593</v>
+        <v>0.03210661420220449</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3398561377.278687</v>
+        <v>3509179962.348664</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1168612520183921</v>
+        <v>0.1674318525393802</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02619240100346805</v>
+        <v>0.02746488898247398</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5357048837.597168</v>
+        <v>4526099040.862413</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1116508986267625</v>
+        <v>0.1189045465817612</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02161571313097267</v>
+        <v>0.02715597514530016</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4809502330.210738</v>
+        <v>5027019120.439458</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1474174429291928</v>
+        <v>0.1269160272124562</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04953709016776755</v>
+        <v>0.03438598480006295</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3246515946.841377</v>
+        <v>2571679075.232719</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09755138602605579</v>
+        <v>0.06772305774895296</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03110303800242471</v>
+        <v>0.03751562997925422</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4546186282.145761</v>
+        <v>5312678586.650458</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1292655474709818</v>
+        <v>0.1369338108914551</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04684059058281885</v>
+        <v>0.04446651675905598</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2404160633.513958</v>
+        <v>1681468205.818584</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1183297703785811</v>
+        <v>0.1286742637230399</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05245072313099423</v>
+        <v>0.04419063411678668</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2380936813.532561</v>
+        <v>3277628118.494878</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06379924099434091</v>
+        <v>0.102458338776298</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04700825633317637</v>
+        <v>0.04580195036344979</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5632667966.749988</v>
+        <v>4673056684.747772</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1783405366684755</v>
+        <v>0.156030197815016</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03221291151774146</v>
+        <v>0.03406523763146505</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1950325284.646335</v>
+        <v>1634400119.981703</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09457998843663755</v>
+        <v>0.09881387957868744</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04677738002031893</v>
+        <v>0.03824385233340768</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2180856705.645498</v>
+        <v>3413486737.098726</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08714955580734682</v>
+        <v>0.09289333608069587</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03953548752569119</v>
+        <v>0.04204516485764257</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3603584803.451451</v>
+        <v>2928539745.768775</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1658190513199244</v>
+        <v>0.1680925388578783</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02552136027976402</v>
+        <v>0.02509663217842236</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1516184723.761608</v>
+        <v>2271473036.950885</v>
       </c>
       <c r="F75" t="n">
-        <v>0.102774227737822</v>
+        <v>0.1087174195439997</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03681113657027223</v>
+        <v>0.03212290770194383</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4498815366.665848</v>
+        <v>3337844203.039889</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07610517870190629</v>
+        <v>0.1083695237429902</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02559869182478179</v>
+        <v>0.03041737464068378</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1840296519.906383</v>
+        <v>1608481988.227037</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1253219341020895</v>
+        <v>0.1615301908061434</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02636445783794045</v>
+        <v>0.02858249766163442</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3682027201.895268</v>
+        <v>3813946815.597403</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1212839747166718</v>
+        <v>0.09092758715035344</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05705456379408268</v>
+        <v>0.03970820619316275</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1456998361.637316</v>
+        <v>1615210504.061199</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1507960637770781</v>
+        <v>0.1361991710296566</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03977880247996868</v>
+        <v>0.03496890411495287</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5131599347.252408</v>
+        <v>3431525883.365659</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1095714019915302</v>
+        <v>0.07344035613207754</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03495722120765831</v>
+        <v>0.02496059705353478</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4875949676.947134</v>
+        <v>3254463849.306585</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1249849144823212</v>
+        <v>0.08914345031670674</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03168058922447946</v>
+        <v>0.02856170082859069</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3807711919.579002</v>
+        <v>4840716480.887179</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1367887661380965</v>
+        <v>0.2098869292531868</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02126754305056532</v>
+        <v>0.02655500824051562</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2266509212.928169</v>
+        <v>1984865726.836313</v>
       </c>
       <c r="F83" t="n">
-        <v>0.142037196529693</v>
+        <v>0.1257707308189586</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03221004701034164</v>
+        <v>0.04363514968176246</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2374278673.295674</v>
+        <v>2003024749.665648</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09539697404226351</v>
+        <v>0.1198048851908084</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04369743605595369</v>
+        <v>0.03754038587208579</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2794191540.85447</v>
+        <v>3412347627.135354</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1361516650384871</v>
+        <v>0.1378690473131355</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04448069174284528</v>
+        <v>0.05065699572544575</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2255199876.281731</v>
+        <v>1757715452.764063</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1582132184144705</v>
+        <v>0.1640460323101957</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01873150227964798</v>
+        <v>0.02349578211699542</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1205739079.440852</v>
+        <v>915012561.4352261</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1646656292264152</v>
+        <v>0.1203276017453229</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03358622578738179</v>
+        <v>0.03861521173533387</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2813486804.562202</v>
+        <v>2363199181.726133</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1258383471334659</v>
+        <v>0.1569951944308811</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02438135700160984</v>
+        <v>0.02522220936803737</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3477540498.603454</v>
+        <v>2502455274.893488</v>
       </c>
       <c r="F89" t="n">
-        <v>0.135655240905512</v>
+        <v>0.1177823796512464</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0303632989834046</v>
+        <v>0.02699313488920727</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2051533701.797417</v>
+        <v>1347411383.61794</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1272079479274615</v>
+        <v>0.1257668454106744</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0547037072379008</v>
+        <v>0.05142365268200507</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2099637158.545191</v>
+        <v>1837300458.576273</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1529029845623971</v>
+        <v>0.1597157019396173</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05570731401656324</v>
+        <v>0.04830954356285033</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2877637474.824002</v>
+        <v>2182764046.521308</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06691843242025131</v>
+        <v>0.08405832959838976</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03269289839851064</v>
+        <v>0.03641280271449317</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4380527540.658201</v>
+        <v>4710815532.928054</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1148265665852647</v>
+        <v>0.1009820181622183</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03506331702189434</v>
+        <v>0.0538268229955177</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1593769806.614924</v>
+        <v>1590369790.713883</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1310106017293236</v>
+        <v>0.1665031493455519</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03491687917069199</v>
+        <v>0.03186792497307409</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3281157634.726946</v>
+        <v>3072880072.536366</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09916141286951544</v>
+        <v>0.1192508702710148</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03777093160040453</v>
+        <v>0.03519619274962615</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2043272845.914112</v>
+        <v>2063898062.600843</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1001324627345127</v>
+        <v>0.1111867735768607</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03613564622806708</v>
+        <v>0.04377661924715115</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3302136387.199412</v>
+        <v>4384524069.517418</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1391808432900417</v>
+        <v>0.1525232530509023</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02286495953408244</v>
+        <v>0.02318403487674419</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3554974431.587914</v>
+        <v>3257470559.093112</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0841263441832195</v>
+        <v>0.1126263218472585</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02246802974878747</v>
+        <v>0.0291367819410623</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3135459651.207431</v>
+        <v>2767991653.057978</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1331994301883593</v>
+        <v>0.1362858803688931</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02193106824355354</v>
+        <v>0.02749089731089481</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3066367811.483685</v>
+        <v>4525666901.656614</v>
       </c>
       <c r="F100" t="n">
-        <v>0.172995096097445</v>
+        <v>0.142532869027061</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02179300689437938</v>
+        <v>0.0225161289724606</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3353957075.363341</v>
+        <v>3615425852.628146</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1394019061785753</v>
+        <v>0.1889562673281974</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04567715816974906</v>
+        <v>0.03696792291135809</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_468.xlsx
+++ b/output/fit_clients/fit_round_468.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2262011470.031886</v>
+        <v>1555207839.706829</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1093096285069026</v>
+        <v>0.08660229056097063</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04536441279209481</v>
+        <v>0.03563105210066383</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1901952815.347513</v>
+        <v>1851431141.600286</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1117824927486316</v>
+        <v>0.1664654428644539</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03399194491467278</v>
+        <v>0.04444067655640595</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4028745752.266841</v>
+        <v>3236953865.64658</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1576849362648233</v>
+        <v>0.1247310438205374</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03740934585388624</v>
+        <v>0.03000909802127211</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>237</v>
+      </c>
+      <c r="J4" t="n">
+        <v>467</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25.4493796313882</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4115103896.772615</v>
+        <v>3424753287.302279</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07531887342458703</v>
+        <v>0.084045064947198</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04434531526078437</v>
+        <v>0.03121307430488723</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>198</v>
+      </c>
+      <c r="J5" t="n">
+        <v>467</v>
+      </c>
+      <c r="K5" t="n">
+        <v>32.79806400738651</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2532460034.742307</v>
+        <v>2687950443.960812</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1178931134983571</v>
+        <v>0.1373219546338622</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03654743973358231</v>
+        <v>0.05294731424835555</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2729736500.25416</v>
+        <v>2406004168.711257</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06529591456028311</v>
+        <v>0.08519504436616909</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03262814213598879</v>
+        <v>0.0322803034603147</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3409386530.021259</v>
+        <v>3624905696.42781</v>
       </c>
       <c r="F8" t="n">
-        <v>0.140019251319153</v>
+        <v>0.1710070229828285</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03252443067357108</v>
+        <v>0.02197659898811668</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>133</v>
+      </c>
+      <c r="J8" t="n">
+        <v>468</v>
+      </c>
+      <c r="K8" t="n">
+        <v>43.88433802831646</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1993523162.811152</v>
+        <v>1784339019.876918</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1633556593919593</v>
+        <v>0.1835461407906084</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02615836754939237</v>
+        <v>0.03384196417413773</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +781,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3955963274.728131</v>
+        <v>5932656196.436222</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2073303873077811</v>
+        <v>0.1725013897081556</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04335315900719708</v>
+        <v>0.04081222725978204</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>359</v>
+      </c>
+      <c r="J10" t="n">
+        <v>468</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3939879793.259652</v>
+        <v>4040926586.85665</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1402727231883905</v>
+        <v>0.1861022759385096</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04833724706498929</v>
+        <v>0.03554636477224002</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>194</v>
+      </c>
+      <c r="J11" t="n">
+        <v>468</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2069220652.025373</v>
+        <v>2606240885.91299</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1749916323210042</v>
+        <v>0.1654681679748516</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05147910410341176</v>
+        <v>0.03822216873501171</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4948604118.00292</v>
+        <v>4897553615.011855</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07030983303756075</v>
+        <v>0.06422952496473443</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03059603604180149</v>
+        <v>0.02816192667383339</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>243</v>
+      </c>
+      <c r="J13" t="n">
+        <v>468</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3415008050.12599</v>
+        <v>3665828318.243499</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1250338670412129</v>
+        <v>0.1262710943611514</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04274524623345307</v>
+        <v>0.04033312606255436</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>106</v>
+      </c>
+      <c r="J14" t="n">
+        <v>468</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1664903151.351867</v>
+        <v>1837324328.783401</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06815780228233741</v>
+        <v>0.09010014924005245</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03236747874109337</v>
+        <v>0.03748166757262518</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1933102418.804776</v>
+        <v>2273855049.669604</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1045289472435326</v>
+        <v>0.07893375146627835</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03787455221354387</v>
+        <v>0.03832803914997875</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4225507560.362782</v>
+        <v>3242587980.223344</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1450407070910066</v>
+        <v>0.1383410462970004</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04777998414327609</v>
+        <v>0.04605187227397648</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>229</v>
+      </c>
+      <c r="J17" t="n">
+        <v>466</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3021593226.939754</v>
+        <v>3386551018.181473</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1562248566457732</v>
+        <v>0.1261717964505749</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02594458204610698</v>
+        <v>0.02562167039006921</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>125</v>
+      </c>
+      <c r="J18" t="n">
+        <v>463</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1267447603.763061</v>
+        <v>878399557.8430678</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1759396517785026</v>
+        <v>0.1910377962992215</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01901437193951914</v>
+        <v>0.02117529469171073</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1137,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2646181283.534294</v>
+        <v>2212944506.016</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1113383597016137</v>
+        <v>0.1523274099895281</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02192748834844075</v>
+        <v>0.03061581546179135</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2655469826.035048</v>
+        <v>2290471443.800751</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07698435793116123</v>
+        <v>0.08270698047689021</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04528171369915883</v>
+        <v>0.02998297212529409</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3131548437.801691</v>
+        <v>3665740739.69176</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1191642074617872</v>
+        <v>0.1434169547294859</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04129623882459481</v>
+        <v>0.04152788461907243</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>136</v>
+      </c>
+      <c r="J22" t="n">
+        <v>468</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1095450962.667594</v>
+        <v>1075403942.942724</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1806044894468574</v>
+        <v>0.1536050346923432</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04838301696139898</v>
+        <v>0.05498919864623389</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3608908430.263838</v>
+        <v>4040222159.653328</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1427772321080913</v>
+        <v>0.09949932256681897</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02338983997510787</v>
+        <v>0.02922180494488754</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>148</v>
+      </c>
+      <c r="J24" t="n">
+        <v>468</v>
+      </c>
+      <c r="K24" t="n">
+        <v>42.18807394204132</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1226562661.249607</v>
+        <v>1233820494.062247</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09412912399158162</v>
+        <v>0.1035543135914213</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02345017293449383</v>
+        <v>0.03091034940072361</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1001135189.690548</v>
+        <v>1080420340.04336</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1228624590281925</v>
+        <v>0.120756645508721</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02459363511946211</v>
+        <v>0.02989440372936364</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1384,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4627519415.605233</v>
+        <v>3499059934.608237</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1366147334866154</v>
+        <v>0.149735798171619</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01907522789526268</v>
+        <v>0.02326804312840937</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>206</v>
+      </c>
+      <c r="J27" t="n">
+        <v>466</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3006613514.831592</v>
+        <v>3025061598.159459</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1242607365676561</v>
+        <v>0.1371218233253784</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04280612402398843</v>
+        <v>0.04822331935948023</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>116</v>
+      </c>
+      <c r="J28" t="n">
+        <v>464</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3949951152.690491</v>
+        <v>5894060852.110156</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1127354654883395</v>
+        <v>0.09916209082659568</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04242760304201521</v>
+        <v>0.04136098536214923</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>375</v>
+      </c>
+      <c r="J29" t="n">
+        <v>467</v>
+      </c>
+      <c r="K29" t="n">
+        <v>28.00784135222901</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2205145961.140699</v>
+        <v>1666498801.19996</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1190152558746224</v>
+        <v>0.1323756266551999</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02558725489089693</v>
+        <v>0.03907889963845248</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>915545852.0200362</v>
+        <v>1034616836.423865</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06928894817193354</v>
+        <v>0.08817512161792236</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04606376057687216</v>
+        <v>0.03283152383603065</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1230261706.480614</v>
+        <v>1376063025.309956</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1017356174489204</v>
+        <v>0.1133591088547655</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02488417352327078</v>
+        <v>0.02553143941564298</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2406537127.566438</v>
+        <v>2628626152.264112</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1788098826926854</v>
+        <v>0.1429186492281753</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0414172951881889</v>
+        <v>0.04850359538030483</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1631,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1549493303.2713</v>
+        <v>1296947312.559562</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1000992846551943</v>
+        <v>0.09895735387899289</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0284612708113675</v>
+        <v>0.01806732853837527</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>963831088.4458582</v>
+        <v>1204542114.054595</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08812301686777986</v>
+        <v>0.1036919217353167</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03412946115318157</v>
+        <v>0.03611474126701888</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1701,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2333248460.660517</v>
+        <v>2997856324.617146</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1587176212894063</v>
+        <v>0.1308384671632896</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02681329062581268</v>
+        <v>0.02440034409608489</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2830365623.818282</v>
+        <v>2080950224.963046</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09580972470064313</v>
+        <v>0.09596849296493459</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0303478661669923</v>
+        <v>0.04245193737146816</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1373841918.588193</v>
+        <v>1388477554.506631</v>
       </c>
       <c r="F38" t="n">
-        <v>0.092999857680684</v>
+        <v>0.08768592326726041</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0256713239581691</v>
+        <v>0.02843192034725547</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1930634416.574083</v>
+        <v>1967520003.783877</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1301374854337505</v>
+        <v>0.121305470300496</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02464802718762057</v>
+        <v>0.02348419356314838</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1709634099.744082</v>
+        <v>1672613479.204021</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1538648035120482</v>
+        <v>0.1214956138869071</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04237263878082843</v>
+        <v>0.05775321319374819</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2657865659.273854</v>
+        <v>2578164087.655766</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1027849031077686</v>
+        <v>0.1175914440178048</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02929177008922958</v>
+        <v>0.04369218307252717</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3460498064.656163</v>
+        <v>2883430540.531492</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1149768944508728</v>
+        <v>0.07753598471519499</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03802123901873548</v>
+        <v>0.0444774975764144</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>204</v>
+      </c>
+      <c r="J42" t="n">
+        <v>463</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1969412136.617436</v>
+        <v>2153464084.059934</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1776690018125403</v>
+        <v>0.1706646441661963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01975180025595566</v>
+        <v>0.01669467923318763</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1628576597.877492</v>
+        <v>1677902822.913373</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09386471306120019</v>
+        <v>0.06974383315431709</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02561053345242842</v>
+        <v>0.02458881879585358</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2016,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2036331205.717376</v>
+        <v>1791200013.019034</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1817731094679517</v>
+        <v>0.1504579662413943</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05285011738296892</v>
+        <v>0.05586312304611103</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4370363207.893761</v>
+        <v>4249349538.106384</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1413255665499873</v>
+        <v>0.1713483686239347</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04771435390811219</v>
+        <v>0.04326568470000121</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>277</v>
+      </c>
+      <c r="J46" t="n">
+        <v>467</v>
+      </c>
+      <c r="K46" t="n">
+        <v>31.49967564248256</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3885583826.705575</v>
+        <v>4030572001.187366</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1711896054458948</v>
+        <v>0.1683248279475905</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03744859049059292</v>
+        <v>0.04246037552302596</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>211</v>
+      </c>
+      <c r="J47" t="n">
+        <v>468</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2904675290.567895</v>
+        <v>4312371656.671632</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07686453749867203</v>
+        <v>0.1096445261199052</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03278154045690496</v>
+        <v>0.03522626530192512</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>233</v>
+      </c>
+      <c r="J48" t="n">
+        <v>468</v>
+      </c>
+      <c r="K48" t="n">
+        <v>34.96221821495246</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1978417107.742784</v>
+        <v>1281922992.619864</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1508817796201264</v>
+        <v>0.139361368782082</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03313668041845147</v>
+        <v>0.02810797161147608</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2819670183.084008</v>
+        <v>3400741897.898422</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1397850750234757</v>
+        <v>0.1299571369969899</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05316675738300778</v>
+        <v>0.04499816739313316</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>168</v>
+      </c>
+      <c r="J50" t="n">
+        <v>467</v>
+      </c>
+      <c r="K50" t="n">
+        <v>33.16749260615814</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1021386621.800307</v>
+        <v>1374147379.751563</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1349626197224072</v>
+        <v>0.1895567729785709</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03912276894568056</v>
+        <v>0.05200136687930822</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4193385282.847302</v>
+        <v>3875702088.383084</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08997502022039466</v>
+        <v>0.1115976219511205</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05882710919022884</v>
+        <v>0.03985271235542973</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>264</v>
+      </c>
+      <c r="J52" t="n">
+        <v>468</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3407034140.878847</v>
+        <v>3450105232.979525</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1655330037476186</v>
+        <v>0.1919956503421743</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02891562408869137</v>
+        <v>0.02866223335758065</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>71</v>
+      </c>
+      <c r="J53" t="n">
+        <v>457</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4159024031.494623</v>
+        <v>3078251116.774905</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1112702173043779</v>
+        <v>0.1358690228825121</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04024866272353983</v>
+        <v>0.05032513997894259</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>248</v>
+      </c>
+      <c r="J54" t="n">
+        <v>467</v>
+      </c>
+      <c r="K54" t="n">
+        <v>23.31098232265956</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4388871934.696147</v>
+        <v>3195543384.68078</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1496497571781285</v>
+        <v>0.1847206416237458</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02069181208032567</v>
+        <v>0.02756644707304278</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>231</v>
+      </c>
+      <c r="J55" t="n">
+        <v>466</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1240083715.448296</v>
+        <v>1530736999.822201</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1571593844207666</v>
+        <v>0.1595445292386668</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0475061272109249</v>
+        <v>0.05224628447176448</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4510576245.499692</v>
+        <v>3149909698.647662</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1632079740755129</v>
+        <v>0.1363923273109117</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0271520761062155</v>
+        <v>0.02764676395063424</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>201</v>
+      </c>
+      <c r="J57" t="n">
+        <v>467</v>
+      </c>
+      <c r="K57" t="n">
+        <v>26.20747645222639</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1413121148.436562</v>
+        <v>1197145058.36383</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1895239688753585</v>
+        <v>0.1994744032518554</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03134193328089178</v>
+        <v>0.03349953226523143</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2510,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3420966515.89656</v>
+        <v>4220969242.531237</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1252461201283651</v>
+        <v>0.07937289515664821</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03045275336340341</v>
+        <v>0.04315407728809234</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>229</v>
+      </c>
+      <c r="J59" t="n">
+        <v>468</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3687917805.081129</v>
+        <v>3217079312.347024</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1864551988232258</v>
+        <v>0.2027542899599279</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02461522623199089</v>
+        <v>0.02315012832824787</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>91</v>
+      </c>
+      <c r="J60" t="n">
+        <v>465</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2391717190.345364</v>
+        <v>2710392334.666159</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1436163844037663</v>
+        <v>0.1490428228528023</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02552131167597062</v>
+        <v>0.02679730706091671</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1547719802.111803</v>
+        <v>1523169883.747286</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1923003799444858</v>
+        <v>0.121206837757589</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04225853011439629</v>
+        <v>0.03297064306640064</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3380538667.598917</v>
+        <v>4718744677.043264</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1032011499764341</v>
+        <v>0.09417274138231913</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03210661420220449</v>
+        <v>0.03493625869628049</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>235</v>
+      </c>
+      <c r="J63" t="n">
+        <v>467</v>
+      </c>
+      <c r="K63" t="n">
+        <v>31.11677304397492</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3509179962.348664</v>
+        <v>4435117010.715959</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1674318525393802</v>
+        <v>0.1267314234465922</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02746488898247398</v>
+        <v>0.03157979624363709</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>234</v>
+      </c>
+      <c r="J64" t="n">
+        <v>468</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2728,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4526099040.862413</v>
+        <v>5026327517.884692</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1189045465817612</v>
+        <v>0.1232639301266108</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02715597514530016</v>
+        <v>0.02958666689211354</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>331</v>
+      </c>
+      <c r="J65" t="n">
+        <v>468</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5027019120.439458</v>
+        <v>4451739842.088239</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1269160272124562</v>
+        <v>0.1027330885104407</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03438598480006295</v>
+        <v>0.04116852713539472</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>231</v>
+      </c>
+      <c r="J66" t="n">
+        <v>467</v>
+      </c>
+      <c r="K66" t="n">
+        <v>32.49014405697407</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2571679075.232719</v>
+        <v>3419414707.950008</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06772305774895296</v>
+        <v>0.08670607468669914</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03751562997925422</v>
+        <v>0.04907753784929388</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5312678586.650458</v>
+        <v>4847294317.041292</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1369338108914551</v>
+        <v>0.1397804761888484</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04446651675905598</v>
+        <v>0.03844261750758123</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>255</v>
+      </c>
+      <c r="J68" t="n">
+        <v>467</v>
+      </c>
+      <c r="K68" t="n">
+        <v>31.83120422519046</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1681468205.818584</v>
+        <v>2287009184.239581</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1286742637230399</v>
+        <v>0.1464922710038084</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04419063411678668</v>
+        <v>0.05629300188363636</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2901,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3277628118.494878</v>
+        <v>3640579267.866485</v>
       </c>
       <c r="F70" t="n">
-        <v>0.102458338776298</v>
+        <v>0.1025967912463433</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04580195036344979</v>
+        <v>0.04729906720912817</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>70</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="n">
+        <v>49.25431081847842</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4673056684.747772</v>
+        <v>5260135345.682813</v>
       </c>
       <c r="F71" t="n">
-        <v>0.156030197815016</v>
+        <v>0.1860812306801461</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03406523763146505</v>
+        <v>0.02187439921716982</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>318</v>
+      </c>
+      <c r="J71" t="n">
+        <v>467</v>
+      </c>
+      <c r="K71" t="n">
+        <v>31.41514264201596</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1634400119.981703</v>
+        <v>2060300736.076443</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09881387957868744</v>
+        <v>0.09891345150759724</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03824385233340768</v>
+        <v>0.03732419833517346</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,22 +3010,31 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3413486737.098726</v>
+        <v>3040559232.776839</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09289333608069587</v>
+        <v>0.08718423584449944</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04204516485764257</v>
+        <v>0.04575671040723542</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>38</v>
+      </c>
+      <c r="J73" t="n">
+        <v>468</v>
+      </c>
+      <c r="K73" t="n">
+        <v>54.12303804056177</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +3047,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2928539745.768775</v>
+        <v>2839946560.680311</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1680925388578783</v>
+        <v>0.1737408576216291</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02509663217842236</v>
+        <v>0.0248045537545923</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>137</v>
+      </c>
+      <c r="J74" t="n">
+        <v>467</v>
+      </c>
+      <c r="K74" t="n">
+        <v>26.49057213103874</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2271473036.950885</v>
+        <v>2208173119.454785</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1087174195439997</v>
+        <v>0.1073628057544466</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03212290770194383</v>
+        <v>0.02996507848185283</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3337844203.039889</v>
+        <v>4409848064.253</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1083695237429902</v>
+        <v>0.08750680644604922</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03041737464068378</v>
+        <v>0.02217159372527115</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>223</v>
+      </c>
+      <c r="J76" t="n">
+        <v>468</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1608481988.227037</v>
+        <v>1976579727.768153</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1615301908061434</v>
+        <v>0.1350478136184658</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02858249766163442</v>
+        <v>0.02111582903598603</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3813946815.597403</v>
+        <v>4175584352.215762</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09092758715035344</v>
+        <v>0.1037464690533078</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03970820619316275</v>
+        <v>0.04625538256938838</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>232</v>
+      </c>
+      <c r="J78" t="n">
+        <v>468</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1615210504.061199</v>
+        <v>1744526264.422179</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1361991710296566</v>
+        <v>0.1432725662441449</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03496890411495287</v>
+        <v>0.03320853058314719</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3431525883.365659</v>
+        <v>4354340169.527263</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07344035613207754</v>
+        <v>0.1017169120205387</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02496059705353478</v>
+        <v>0.033984885292772</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>228</v>
+      </c>
+      <c r="J80" t="n">
+        <v>468</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3254463849.306585</v>
+        <v>4636080788.690232</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08914345031670674</v>
+        <v>0.1148967484204899</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02856170082859069</v>
+        <v>0.0205486354923601</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>217</v>
+      </c>
+      <c r="J81" t="n">
+        <v>468</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4840716480.887179</v>
+        <v>3964266117.914658</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2098869292531868</v>
+        <v>0.185265750150081</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02655500824051562</v>
+        <v>0.01926359140518923</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>310</v>
+      </c>
+      <c r="J82" t="n">
+        <v>467</v>
+      </c>
+      <c r="K82" t="n">
+        <v>32.23423969513183</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1984865726.836313</v>
+        <v>2309754738.91319</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1257707308189586</v>
+        <v>0.1176807530258892</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04363514968176246</v>
+        <v>0.04286585822583682</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3407,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2003024749.665648</v>
+        <v>1931706892.57</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1198048851908084</v>
+        <v>0.1206981514915607</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03754038587208579</v>
+        <v>0.03684288747061855</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3412347627.135354</v>
+        <v>2857133379.401754</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1378690473131355</v>
+        <v>0.1833121885792345</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05065699572544575</v>
+        <v>0.04485811745467554</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>65</v>
+      </c>
+      <c r="J85" t="n">
+        <v>452</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1757715452.764063</v>
+        <v>1814957413.640422</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1640460323101957</v>
+        <v>0.1047938223203509</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02349578211699542</v>
+        <v>0.01672730188375633</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>915012561.4352261</v>
+        <v>1097063985.576424</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1203276017453229</v>
+        <v>0.1520092887038883</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03861521173533387</v>
+        <v>0.02970346136132069</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2363199181.726133</v>
+        <v>3571880200.467664</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1569951944308811</v>
+        <v>0.1482391942662866</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02522220936803737</v>
+        <v>0.03208051891926534</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>61</v>
+      </c>
+      <c r="J88" t="n">
+        <v>449</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2502455274.893488</v>
+        <v>2802940678.639967</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1177823796512464</v>
+        <v>0.1521561992824703</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02699313488920727</v>
+        <v>0.02641668126259844</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1347411383.61794</v>
+        <v>1345394765.972888</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1257668454106744</v>
+        <v>0.1325115793163031</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05142365268200507</v>
+        <v>0.05368964828079561</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1837300458.576273</v>
+        <v>1638910942.663803</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1597157019396173</v>
+        <v>0.1547159833380659</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04830954356285033</v>
+        <v>0.05407382423940108</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2182764046.521308</v>
+        <v>2978657633.822111</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08405832959838976</v>
+        <v>0.1039044237089586</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03641280271449317</v>
+        <v>0.04725941947741696</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4710815532.928054</v>
+        <v>3900618193.78166</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1009820181622183</v>
+        <v>0.107351753802317</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0538268229955177</v>
+        <v>0.05195706433766909</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>225</v>
+      </c>
+      <c r="J93" t="n">
+        <v>467</v>
+      </c>
+      <c r="K93" t="n">
+        <v>30.56805848379676</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1590369790.713883</v>
+        <v>1594323354.073827</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1665031493455519</v>
+        <v>0.1624403176297234</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03186792497307409</v>
+        <v>0.02997121664079572</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3072880072.536366</v>
+        <v>2129683987.624583</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1192508702710148</v>
+        <v>0.111811505787245</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03519619274962615</v>
+        <v>0.03698591765952521</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2063898062.600843</v>
+        <v>2372614599.398604</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1111867735768607</v>
+        <v>0.1181005030978879</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04377661924715115</v>
+        <v>0.04477451449731049</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4384524069.517418</v>
+        <v>4669671608.180704</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1525232530509023</v>
+        <v>0.1756389647123561</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02318403487674419</v>
+        <v>0.02007689795321453</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>243</v>
+      </c>
+      <c r="J97" t="n">
+        <v>468</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3257470559.093112</v>
+        <v>2659519375.324987</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1126263218472585</v>
+        <v>0.1294937165808256</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0291367819410623</v>
+        <v>0.02563831286682357</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>117</v>
+      </c>
+      <c r="J98" t="n">
+        <v>464</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2767991653.057978</v>
+        <v>2111122259.648063</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1362858803688931</v>
+        <v>0.09269317083007964</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02749089731089481</v>
+        <v>0.02890515862662737</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4525666901.656614</v>
+        <v>3634720880.243512</v>
       </c>
       <c r="F100" t="n">
-        <v>0.142532869027061</v>
+        <v>0.1454855008501904</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0225161289724606</v>
+        <v>0.02620087640070198</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>219</v>
+      </c>
+      <c r="J100" t="n">
+        <v>467</v>
+      </c>
+      <c r="K100" t="n">
+        <v>32.61463821402889</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3615425852.628146</v>
+        <v>2173830297.546066</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1889562673281974</v>
+        <v>0.2104569736720585</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03696792291135809</v>
+        <v>0.04842853415134139</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
